--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ClinicalUseDefinition-undesirableEffect-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ClinicalUseDefinition-undesirableEffect-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -485,7 +485,7 @@
     <t>Overall defining type of this clinical use definition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>(the type of IDMP class, out of Contraindication, Therapeutic Indication, Interactions, Undesirable Effects)</t>
@@ -670,6 +670,22 @@
     <t>(the link from Contraindication to Therapeutic Indication)</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.contraindication.applicability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression
+</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements.</t>
+  </si>
+  <si>
+    <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.contraindication.otherTherapy</t>
   </si>
   <si>
@@ -834,6 +850,9 @@
     <t>Therapeutic Indication.Undesirable Effects</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.indication.applicability</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.indication.otherTherapy</t>
   </si>
   <si>
@@ -993,6 +1012,19 @@
   </si>
   <si>
     <t>Population Specifics</t>
+  </si>
+  <si>
+    <t>ClinicalUseDefinition.library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Library)
+</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition.</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.undesirableEffect</t>
@@ -1407,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1441,7 +1473,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="81.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.99609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4011,7 +4043,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4020,18 +4052,20 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4086,7 +4120,7 @@
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
@@ -4095,7 +4129,7 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4106,10 +4140,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4120,7 +4154,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4129,16 +4163,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4189,47 +4223,47 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4241,17 +4275,15 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4300,19 +4332,19 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4326,14 +4358,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4346,26 +4378,24 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4413,7 +4443,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4434,47 +4464,51 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4498,13 +4532,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4522,36 +4556,36 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4574,13 +4608,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4607,13 +4641,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4631,7 +4665,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -4646,7 +4680,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4657,10 +4691,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4668,10 +4702,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4683,13 +4717,13 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4716,13 +4750,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4740,10 +4774,10 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>83</v>
@@ -4755,7 +4789,7 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4766,10 +4800,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4780,7 +4814,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4789,16 +4823,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4849,7 +4883,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4861,35 +4895,35 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4901,17 +4935,15 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -4960,19 +4992,19 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4986,14 +5018,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5006,26 +5038,24 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5073,7 +5103,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5094,47 +5124,51 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5158,13 +5192,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5182,36 +5216,36 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5237,10 +5271,10 @@
         <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5270,10 +5304,10 @@
         <v>192</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5291,7 +5325,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5306,7 +5340,7 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5317,10 +5351,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5331,7 +5365,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5346,10 +5380,10 @@
         <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5379,10 +5413,10 @@
         <v>192</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5400,13 +5434,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5415,7 +5449,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5426,10 +5460,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5440,7 +5474,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5455,10 +5489,10 @@
         <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5485,13 +5519,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5509,13 +5543,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
@@ -5524,7 +5558,7 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5535,10 +5569,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5561,13 +5595,13 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5594,13 +5628,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5618,7 +5652,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5658,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5670,13 +5704,13 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5733,7 +5767,7 @@
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
@@ -5742,7 +5776,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5753,10 +5787,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5779,13 +5813,13 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5836,7 +5870,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5851,7 +5885,7 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5862,10 +5896,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5876,7 +5910,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5885,18 +5919,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -5945,7 +5981,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5960,7 +5996,7 @@
         <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5971,10 +6007,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5985,7 +6021,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -5994,16 +6030,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6054,47 +6090,47 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6103,20 +6139,18 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6165,72 +6199,68 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6278,19 +6308,19 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6299,19 +6329,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6327,18 +6357,20 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6387,7 +6419,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6399,56 +6431,60 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6496,19 +6532,19 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6517,19 +6553,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6545,20 +6581,18 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6607,7 +6641,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6619,60 +6653,56 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6720,19 +6750,19 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6741,26 +6771,26 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6769,18 +6799,20 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -6805,13 +6837,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -6829,68 +6861,72 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -6914,13 +6950,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6938,36 +6974,36 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6975,7 +7011,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>83</v>
@@ -6990,13 +7026,13 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7026,10 +7062,10 @@
         <v>192</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7047,10 +7083,10 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>83</v>
@@ -7062,7 +7098,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7073,10 +7109,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7102,10 +7138,10 @@
         <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7135,10 +7171,10 @@
         <v>192</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7156,7 +7192,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7171,7 +7207,7 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7182,10 +7218,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7196,7 +7232,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7208,13 +7244,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7244,10 +7280,10 @@
         <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7265,13 +7301,13 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
@@ -7280,7 +7316,7 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7291,10 +7327,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7305,7 +7341,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7317,13 +7353,13 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7350,13 +7386,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7374,13 +7410,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -7389,7 +7425,7 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7400,10 +7436,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7411,10 +7447,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7426,13 +7462,13 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7459,13 +7495,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7483,13 +7519,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
@@ -7498,7 +7534,7 @@
         <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7509,10 +7545,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7523,7 +7559,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7532,16 +7568,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7592,40 +7628,40 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7641,20 +7677,18 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7703,7 +7737,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7715,60 +7749,56 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7816,36 +7846,36 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7865,16 +7895,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7901,13 +7931,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -7925,7 +7955,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -7937,35 +7967,35 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -7974,18 +8004,20 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8010,13 +8042,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8034,68 +8066,72 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>330</v>
+        <v>182</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>336</v>
+        <v>185</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8119,13 +8155,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>338</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8143,36 +8179,36 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8183,7 +8219,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8195,13 +8231,13 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8228,13 +8264,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8252,7 +8288,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8267,7 +8303,7 @@
         <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>144</v>
+        <v>339</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8278,10 +8314,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8301,16 +8337,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8337,13 +8373,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8361,7 +8397,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8373,35 +8409,35 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8410,20 +8446,18 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8448,13 +8482,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8472,72 +8506,68 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8585,36 +8615,36 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8634,16 +8664,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8694,7 +8724,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>346</v>
+        <v>179</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -8706,35 +8736,35 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -8743,18 +8773,20 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -8779,51 +8811,382 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH67" t="s" s="2">
+      <c r="Y70" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AI70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AL70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A single issue - either an indication, contraindication, interaction or an undesirable effect for a medicinal product, medication, device or procedure</t>
@@ -1635,13 +1639,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1707,21 +1711,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1732,7 +1736,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1741,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1803,13 +1807,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1829,10 +1833,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1843,7 +1847,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1852,16 +1856,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1912,19 +1916,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1938,10 +1942,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1952,28 +1956,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2023,19 +2027,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2049,10 +2053,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2063,7 +2067,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2075,16 +2079,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2110,13 +2114,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2134,19 +2138,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2160,21 +2164,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2186,16 +2190,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2245,19 +2249,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2266,19 +2270,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2297,16 +2301,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2356,7 +2360,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2377,19 +2381,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2408,16 +2412,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2467,7 +2471,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2479,7 +2483,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2488,19 +2492,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2513,25 +2517,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2580,7 +2584,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2592,7 +2596,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2601,15 +2605,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2629,16 +2633,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2689,7 +2693,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2701,13 +2705,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2715,10 +2719,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2726,10 +2730,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2738,16 +2742,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2759,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -2774,13 +2778,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2798,22 +2802,22 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2824,10 +2828,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2847,16 +2851,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2883,13 +2887,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -2907,7 +2911,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2919,10 +2923,10 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2933,10 +2937,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2944,7 +2948,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>76</v>
@@ -2956,16 +2960,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3016,7 +3020,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3028,10 +3032,10 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3042,10 +3046,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3056,7 +3060,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3065,16 +3069,16 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3101,13 +3105,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3125,22 +3129,22 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3151,10 +3155,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3174,16 +3178,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3234,22 +3238,22 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3260,10 +3264,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3274,7 +3278,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3286,13 +3290,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3343,13 +3347,13 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
@@ -3364,19 +3368,19 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3395,16 +3399,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3454,7 +3458,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3466,7 +3470,7 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3475,19 +3479,19 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3500,25 +3504,25 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3567,7 +3571,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3579,7 +3583,7 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3588,15 +3592,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3607,7 +3611,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3616,16 +3620,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3652,13 +3656,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3676,22 +3680,22 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3702,10 +3706,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3716,7 +3720,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3725,16 +3729,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3761,13 +3765,13 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -3785,22 +3789,22 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3811,10 +3815,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3834,16 +3838,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3870,13 +3874,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3894,7 +3898,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3906,10 +3910,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3920,10 +3924,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3943,16 +3947,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4003,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4015,10 +4019,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4029,10 +4033,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4043,7 +4047,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4055,16 +4059,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4114,22 +4118,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4140,10 +4144,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4163,16 +4167,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4223,7 +4227,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4235,10 +4239,10 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4249,10 +4253,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4263,7 +4267,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4275,13 +4279,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4332,13 +4336,13 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
@@ -4353,19 +4357,19 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4384,16 +4388,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4443,7 +4447,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4455,7 +4459,7 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4464,19 +4468,19 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4489,25 +4493,25 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4556,7 +4560,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4568,7 +4572,7 @@
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4577,15 +4581,15 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4593,10 +4597,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4605,16 +4609,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4641,13 +4645,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4665,22 +4669,22 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4691,10 +4695,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4702,10 +4706,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4714,16 +4718,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4750,13 +4754,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4774,22 +4778,22 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4800,10 +4804,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4823,16 +4827,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4883,22 +4887,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4909,10 +4913,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4923,7 +4927,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4935,13 +4939,13 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4992,13 +4996,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
@@ -5013,19 +5017,19 @@
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5044,16 +5048,16 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5103,7 +5107,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5115,7 +5119,7 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5124,19 +5128,19 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5149,25 +5153,25 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5216,7 +5220,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5228,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5237,15 +5241,15 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5256,7 +5260,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5265,16 +5269,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5301,13 +5305,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5325,22 +5329,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5351,10 +5355,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5365,7 +5369,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5374,16 +5378,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5410,13 +5414,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5434,22 +5438,22 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5460,10 +5464,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5483,16 +5487,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5519,13 +5523,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5543,7 +5547,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5555,10 +5559,10 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5569,10 +5573,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5583,7 +5587,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5592,16 +5596,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5628,13 +5632,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5652,22 +5656,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5678,10 +5682,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5692,7 +5696,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5701,16 +5705,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5761,22 +5765,22 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5787,10 +5791,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5810,16 +5814,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5870,7 +5874,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5882,10 +5886,10 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5896,10 +5900,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5910,7 +5914,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5922,16 +5926,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5981,22 +5985,22 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6007,10 +6011,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6030,16 +6034,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6090,7 +6094,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6102,10 +6106,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6116,10 +6120,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6139,16 +6143,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6199,22 +6203,22 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6225,10 +6229,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6239,7 +6243,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6251,13 +6255,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6308,13 +6312,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6329,19 +6333,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6360,16 +6364,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6419,7 +6423,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6431,7 +6435,7 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6440,19 +6444,19 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6465,25 +6469,25 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6532,7 +6536,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6544,7 +6548,7 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6553,15 +6557,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6581,16 +6585,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6641,7 +6645,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6653,10 +6657,10 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6667,10 +6671,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6681,7 +6685,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -6693,13 +6697,13 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6750,13 +6754,13 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
@@ -6771,19 +6775,19 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6802,16 +6806,16 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6861,7 +6865,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6873,7 +6877,7 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6882,19 +6886,19 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6907,25 +6911,25 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -6974,7 +6978,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6986,7 +6990,7 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -6995,15 +6999,15 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7011,10 +7015,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7023,16 +7027,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7059,13 +7063,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7083,22 +7087,22 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7109,10 +7113,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7123,7 +7127,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7132,16 +7136,16 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7168,13 +7172,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7192,22 +7196,22 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7218,10 +7222,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7232,7 +7236,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7241,16 +7245,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7277,13 +7281,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7301,22 +7305,22 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7327,10 +7331,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7341,7 +7345,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7350,16 +7354,16 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7386,13 +7390,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7410,22 +7414,22 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7436,10 +7440,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7459,16 +7463,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7495,13 +7499,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7519,7 +7523,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7531,10 +7535,10 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7545,10 +7549,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7568,16 +7572,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7628,7 +7632,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7640,10 +7644,10 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7654,10 +7658,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7677,16 +7681,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7737,7 +7741,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7749,10 +7753,10 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7763,10 +7767,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7774,10 +7778,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -7786,16 +7790,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7846,22 +7850,22 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7872,10 +7876,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7886,7 +7890,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -7898,13 +7902,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7955,13 +7959,13 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
@@ -7976,19 +7980,19 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8007,16 +8011,16 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8066,7 +8070,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8078,7 +8082,7 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8087,19 +8091,19 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8112,25 +8116,25 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8179,7 +8183,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8191,7 +8195,7 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8200,15 +8204,15 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8219,7 +8223,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8228,16 +8232,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8264,13 +8268,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8288,22 +8292,22 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8314,10 +8318,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8328,7 +8332,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8337,16 +8341,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8373,13 +8377,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8397,22 +8401,22 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8423,10 +8427,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8437,7 +8441,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8446,16 +8450,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8482,13 +8486,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8506,22 +8510,22 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8532,10 +8536,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8555,16 +8559,16 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8615,22 +8619,22 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8641,10 +8645,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8655,7 +8659,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -8667,13 +8671,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8724,13 +8728,13 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
@@ -8745,19 +8749,19 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8776,16 +8780,16 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8835,7 +8839,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8847,7 +8851,7 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8856,19 +8860,19 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8881,25 +8885,25 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -8948,7 +8952,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -8960,7 +8964,7 @@
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -8969,15 +8973,15 @@
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8988,7 +8992,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -8997,16 +9001,16 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9057,22 +9061,22 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9083,10 +9087,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9097,7 +9101,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9106,16 +9110,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9142,13 +9146,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -9166,22 +9170,22 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
